--- a/test.xlsx
+++ b/test.xlsx
@@ -437,22 +437,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Tempo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Genre</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Artist Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Track Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Genre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Tempo</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Artist Name</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/test.xlsx
+++ b/test.xlsx
@@ -437,27 +437,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Artist Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Track Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tempo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Genre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Artist Name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Track Name</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Key</t>
         </is>
       </c>
     </row>
@@ -2959,21 +2959,21 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Sucker</t>
+          <t>Beautiful Soul</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Jonas Brothers</t>
+          <t>Jesse McCartney</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>12A</t>
+          <t>11B</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2987,21 +2987,21 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>VIBEZ</t>
+          <t>No Sleep</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DaBaby</t>
+          <t>Wiz Khalifa</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>12A</t>
+          <t>11B</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3015,12 +3015,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HUMBLE.</t>
+          <t>Sucker</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Kendrick Lamar</t>
+          <t>Jonas Brothers</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3029,11 +3029,11 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -3043,12 +3043,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Drip Too Hard (Lil Baby &amp; Gunna)</t>
+          <t>VIBEZ</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Lil Baby, Gunna</t>
+          <t>DaBaby</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3071,12 +3071,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Glass House (feat. Naomi Wild)</t>
+          <t>HUMBLE.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Machine Gun Kelly, Naomi Wild</t>
+          <t>Kendrick Lamar</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3099,12 +3099,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Bosses and Workers (feat. Don Q and Trap Manny)</t>
+          <t>Drip Too Hard (Lil Baby &amp; Gunna)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>A Boogie Wit da Hoodie, Don Q, Trap Manny</t>
+          <t>Lil Baby, Gunna</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Summertime Sadness (Lana Del Rey Vs. Cedric Gervais) - Cedric Gervais Remix</t>
+          <t>Glass House (feat. Naomi Wild)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Lana Del Rey, Cedric Gervais</t>
+          <t>Machine Gun Kelly, Naomi Wild</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3141,11 +3141,11 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -3155,12 +3155,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Hope</t>
+          <t>Bosses and Workers (feat. Don Q and Trap Manny)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>The Chainsmokers, Winona Oak</t>
+          <t>A Boogie Wit da Hoodie, Don Q, Trap Manny</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3169,11 +3169,11 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -3183,12 +3183,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Wii Sports</t>
+          <t>Summertime Sadness (Lana Del Rey Vs. Cedric Gervais) - Cedric Gervais Remix</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>VGR</t>
+          <t>Lana Del Rey, Cedric Gervais</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3197,11 +3197,11 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3211,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Generous - Martin Jensen Remix</t>
+          <t>Hope</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Olivia Holt, Martin Jensen</t>
+          <t>The Chainsmokers, Winona Oak</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3239,12 +3239,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Addicted To A Memory</t>
+          <t>Wii Sports</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Zedd, Bahari</t>
+          <t>VGR</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -3267,12 +3267,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Better When You're Gone</t>
+          <t>Generous - Martin Jensen Remix</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>David Guetta, Brooks, Loote</t>
+          <t>Olivia Holt, Martin Jensen</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3281,7 +3281,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3295,12 +3295,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Addicted To A Memory</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Khalid</t>
+          <t>Zedd, Bahari</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3309,11 +3309,11 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Bad Luck</t>
+          <t>Better When You're Gone</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Khalid</t>
+          <t>David Guetta, Brooks, Loote</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3337,11 +3337,11 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -3351,12 +3351,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Flare Guns</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Quinn XCII, Chelsea Cutler</t>
+          <t>Khalid</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3365,11 +3365,11 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -3379,12 +3379,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Good Feeling</t>
+          <t>Bad Luck</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Flo Rida</t>
+          <t>Khalid</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3393,11 +3393,11 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -3407,12 +3407,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Heads Will Roll - A-Trak Remix</t>
+          <t>Flare Guns</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Yeah Yeah Yeahs, A-Trak</t>
+          <t>Quinn XCII, Chelsea Cutler</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3421,11 +3421,11 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -3435,12 +3435,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Die Young</t>
+          <t>Good Feeling</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Kesha</t>
+          <t>Flo Rida</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -3463,12 +3463,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Shape of You</t>
+          <t>Heads Will Roll - A-Trak Remix</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Ed Sheeran</t>
+          <t>Yeah Yeah Yeahs, A-Trak</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3477,11 +3477,11 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -3491,12 +3491,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Counting Stars</t>
+          <t>Die Young</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>OneRepublic</t>
+          <t>Kesha</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3519,12 +3519,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Feel It Still</t>
+          <t>Shape of You</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Portugal. The Man</t>
+          <t>Ed Sheeran</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3533,11 +3533,11 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -3547,12 +3547,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Scared to Be Lonely</t>
+          <t>Counting Stars</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Martin Garrix, Dua Lipa</t>
+          <t>OneRepublic</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3561,11 +3561,11 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -3575,25 +3575,25 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>I'm Not Alright</t>
+          <t>Feel It Still</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Loud Luxury, Bryce Vine</t>
+          <t>Portugal. The Man</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>12B</t>
+          <t>12A</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -3603,21 +3603,21 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Roses</t>
+          <t>Scared to Be Lonely</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>The Chainsmokers, ROZES</t>
+          <t>Martin Garrix, Dua Lipa</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>12B</t>
+          <t>12A</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Starving - Bali Bandits Remix (Radio Edit)</t>
+          <t>I'm Not Alright</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Hailee Steinfeld, Grey, Zedd, Bali Bandits</t>
+          <t>Loud Luxury, Bryce Vine</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3645,11 +3645,11 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -3659,12 +3659,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Silence</t>
+          <t>Roses</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Marshmello, Khalid</t>
+          <t>The Chainsmokers, ROZES</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3687,12 +3687,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Love on Me</t>
+          <t>Starving - Bali Bandits Remix (Radio Edit)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galantis, Hook N Sling</t>
+          <t>Hailee Steinfeld, Grey, Zedd, Bali Bandits</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3701,7 +3701,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3715,12 +3715,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Candy Paint</t>
+          <t>Silence</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Post Malone</t>
+          <t>Marshmello, Khalid</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3729,11 +3729,11 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -3743,12 +3743,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>One Thing Right</t>
+          <t>Love on Me</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Marshmello, Kane Brown</t>
+          <t>Galantis, Hook N Sling</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3771,12 +3771,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Starving</t>
+          <t>Candy Paint</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Hailee Steinfeld, Grey, Zedd</t>
+          <t>Post Malone</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3785,11 +3785,11 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -3799,12 +3799,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>I'm Not Alright - Zack Martino Remix</t>
+          <t>One Thing Right</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Loud Luxury, Bryce Vine, Zack Martino</t>
+          <t>Marshmello, Kane Brown</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3813,11 +3813,11 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -3827,25 +3827,25 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ZEZE (feat. Travis Scott &amp; Offset)</t>
+          <t>Starving</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Kodak Black, Offset, Travis Scott</t>
+          <t>Hailee Steinfeld, Grey, Zedd</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>12B</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -3855,21 +3855,21 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Myron</t>
+          <t>I'm Not Alright - Zack Martino Remix</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Lil Uzi Vert</t>
+          <t>Loud Luxury, Bryce Vine, Zack Martino</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>12B</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3883,25 +3883,25 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Lights - Single Version</t>
+          <t>Resolve</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ellie Goulding</t>
+          <t>Audien</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>12B</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -3911,12 +3911,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Taki Taki (with Selena Gomez, Ozuna &amp; Cardi B)</t>
+          <t>ZEZE (feat. Travis Scott &amp; Offset)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>DJ Snake, Selena Gomez, Ozuna, Cardi B</t>
+          <t>Kodak Black, Offset, Travis Scott</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3939,12 +3939,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Murda</t>
+          <t>Myron</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Snavs, Fabian Mazur</t>
+          <t>Lil Uzi Vert</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3953,7 +3953,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3967,12 +3967,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2U</t>
+          <t>Lights - Single Version</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>David Guetta, Justin Bieber</t>
+          <t>Ellie Goulding</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3981,11 +3981,11 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -3995,21 +3995,21 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Noticed</t>
+          <t>Taki Taki (with Selena Gomez, Ozuna &amp; Cardi B)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Lil Mosey</t>
+          <t>DJ Snake, Selena Gomez, Ozuna, Cardi B</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -4023,21 +4023,21 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>BUTTERFLY EFFECT</t>
+          <t>Murda</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Travis Scott</t>
+          <t>Snavs, Fabian Mazur</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -4051,21 +4051,21 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Keeping Your Head Up - Don Diablo Remix; Radio Edit</t>
+          <t>2U</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Birdy, Don Diablo</t>
+          <t>David Guetta, Justin Bieber</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -4079,12 +4079,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>BOP</t>
+          <t>Noticed</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>DaBaby</t>
+          <t>Lil Mosey</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -4107,12 +4107,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Dreams and Nightmares</t>
+          <t>BUTTERFLY EFFECT</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Meek Mill</t>
+          <t>Travis Scott</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -4135,12 +4135,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Shooting Stars</t>
+          <t>Keeping Your Head Up - Don Diablo Remix; Radio Edit</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Bag Raiders</t>
+          <t>Birdy, Don Diablo</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4149,11 +4149,11 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -4163,12 +4163,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>All Star</t>
+          <t>BOP</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Smash Mouth</t>
+          <t>DaBaby</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4177,11 +4177,11 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -4191,12 +4191,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Still D.R.E.</t>
+          <t>Dreams and Nightmares</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Dr. Dre, Snoop Dogg</t>
+          <t>Meek Mill</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -4219,12 +4219,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Bad and Boujee (feat. Lil Uzi Vert)</t>
+          <t>Shooting Stars</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Migos, Lil Uzi Vert</t>
+          <t>Bag Raiders</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4233,11 +4233,11 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -4247,12 +4247,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Nasty Freestyle</t>
+          <t>All Star</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>T-Wayne</t>
+          <t>Smash Mouth</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4261,11 +4261,11 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -4275,12 +4275,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Long Way Home</t>
+          <t>Still D.R.E.</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Gazzo, Allie Crystal</t>
+          <t>Dr. Dre, Snoop Dogg</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4289,11 +4289,11 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -4303,12 +4303,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Another Day in Paradise</t>
+          <t>Bad and Boujee (feat. Lil Uzi Vert)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Quinn XCII</t>
+          <t>Migos, Lil Uzi Vert</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -4331,12 +4331,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Memories</t>
+          <t>Nasty Freestyle</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Maroon 5</t>
+          <t>T-Wayne</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4345,11 +4345,11 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -4359,12 +4359,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Timber (feat. Ke$ha)</t>
+          <t>Long Way Home</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Pitbull, Kesha</t>
+          <t>Gazzo, Allie Crystal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4373,11 +4373,11 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -4387,12 +4387,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Rather Be (feat. Jess Glynne)</t>
+          <t>Another Day in Paradise</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Clean Bandit, Jess Glynne</t>
+          <t>Quinn XCII</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4401,11 +4401,11 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -4415,12 +4415,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Stolen Dance</t>
+          <t>Memories</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Milky Chance</t>
+          <t>Maroon 5</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -4443,12 +4443,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Booyah</t>
+          <t>Timber (feat. Ke$ha)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Showtek, We Are Loud, Sonny Wilson</t>
+          <t>Pitbull, Kesha</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4457,11 +4457,11 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -4471,25 +4471,25 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Look Back at It</t>
+          <t>Rather Be (feat. Jess Glynne)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>A Boogie Wit da Hoodie</t>
+          <t>Clean Bandit, Jess Glynne</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -4499,21 +4499,21 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Run Away - Radio Edit</t>
+          <t>Stolen Dance</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Sunstroke Project, Olia Tira</t>
+          <t>Milky Chance</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -4527,25 +4527,25 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Booyah</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>Showtek, We Are Loud, Sonny Wilson</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -4555,21 +4555,21 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Bad Bad Bad (feat. Lil Baby)</t>
+          <t>Look Back at It</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Young Thug, Lil Baby</t>
+          <t>A Boogie Wit da Hoodie</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -4583,25 +4583,25 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Goin Baby</t>
+          <t>Run Away - Radio Edit</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DaBaby</t>
+          <t>Sunstroke Project, Olia Tira</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -4611,25 +4611,25 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Came Here for Love</t>
+          <t>Attention</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Sigala, Ella Eyre</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -4639,12 +4639,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tokyo Drift (Fast &amp; Furious) - From "The Fast And The Furious: Tokyo Drift" Soundtrack</t>
+          <t>Bad Bad Bad (feat. Lil Baby)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Teriyaki Boyz</t>
+          <t>Young Thug, Lil Baby</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4653,11 +4653,11 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -4667,12 +4667,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Phantom</t>
+          <t>Goin Baby</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Allen Mock, Chow Chow</t>
+          <t>DaBaby</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4681,11 +4681,11 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -4695,12 +4695,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>By Your Side</t>
+          <t>Came Here for Love</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Jonas Blue, RAYE</t>
+          <t>Sigala, Ella Eyre</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4709,7 +4709,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4723,12 +4723,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Drought (feat. Nevve)</t>
+          <t>Tokyo Drift (Fast &amp; Furious) - From "The Fast And The Furious: Tokyo Drift" Soundtrack</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Dropgun, Nevve</t>
+          <t>Teriyaki Boyz</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4737,11 +4737,11 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -4751,12 +4751,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Without Me</t>
+          <t>Phantom</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Halsey</t>
+          <t>Allen Mock, Chow Chow</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4765,11 +4765,11 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -4779,12 +4779,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Love Lies (with Normani)</t>
+          <t>By Your Side</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Khalid, Normani</t>
+          <t>Jonas Blue, RAYE</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4793,11 +4793,11 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -4807,12 +4807,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Faded</t>
+          <t>Drought (feat. Nevve)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Alan Walker</t>
+          <t>Dropgun, Nevve</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4821,11 +4821,11 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -4835,12 +4835,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>A Sky Full of Stars</t>
+          <t>Without Me</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Coldplay</t>
+          <t>Halsey</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4849,7 +4849,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -4863,12 +4863,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Dark Horse</t>
+          <t>Love Lies (with Normani)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Katy Perry, Juicy J</t>
+          <t>Khalid, Normani</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4877,11 +4877,11 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -4891,12 +4891,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Strip That Down</t>
+          <t>Faded</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Liam Payne, Quavo</t>
+          <t>Alan Walker</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4905,11 +4905,11 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -4919,12 +4919,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>I Don't Care (with Justin Bieber)</t>
+          <t>A Sky Full of Stars</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Ed Sheeran, Justin Bieber</t>
+          <t>Coldplay</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4947,12 +4947,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Sunday Morning (feat. Josie Dunne)</t>
+          <t>Dark Horse</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Matoma, Josie Dunne</t>
+          <t>Katy Perry, Juicy J</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4961,11 +4961,11 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -4975,12 +4975,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Gravy For Pope</t>
+          <t>Strip That Down</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Yung Gravy</t>
+          <t>Liam Payne, Quavo</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4989,7 +4989,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -5003,12 +5003,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1 Thot 2 Thot Red Thot Blue Thot</t>
+          <t>I Don't Care (with Justin Bieber)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Yung Gravy</t>
+          <t>Ed Sheeran, Justin Bieber</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5017,11 +5017,11 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -5031,25 +5031,25 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Money In The Grave (Drake ft. Rick Ross)</t>
+          <t>Sunday Morning (feat. Josie Dunne)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Drake, Rick Ross</t>
+          <t>Matoma, Josie Dunne</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -5059,21 +5059,21 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Stuck In A Dream (feat. Gunna)</t>
+          <t>Gravy For Pope</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Lil Mosey, Gunna</t>
+          <t>Yung Gravy</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -5087,21 +5087,21 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>44 More</t>
+          <t>1 Thot 2 Thot Red Thot Blue Thot</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Logic</t>
+          <t>Yung Gravy</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -5115,25 +5115,25 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Lucky You (feat. Joyner Lucas)</t>
+          <t>Ride</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Eminem, Joyner Lucas</t>
+          <t>Twenty One Pilots</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -5143,12 +5143,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Stranger Things</t>
+          <t>Money In The Grave (Drake ft. Rick Ross)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Joyner Lucas, Chris Brown</t>
+          <t>Drake, Rick Ross</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -5171,12 +5171,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>The Box</t>
+          <t>Stuck In A Dream (feat. Gunna)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Roddy Ricch</t>
+          <t>Lil Mosey, Gunna</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5185,7 +5185,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Gang Related</t>
+          <t>44 More</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -5227,12 +5227,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Did It Again</t>
+          <t>Lucky You (feat. Joyner Lucas)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Lil Tecca</t>
+          <t>Eminem, Joyner Lucas</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -5255,12 +5255,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Godzilla (feat. Juice WRLD)</t>
+          <t>Stranger Things</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Eminem, Juice WRLD</t>
+          <t>Joyner Lucas, Chris Brown</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5269,7 +5269,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -5283,12 +5283,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Peta (feat. Meek Mill)</t>
+          <t>The Box</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Roddy Ricch, Meek Mill</t>
+          <t>Roddy Ricch</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -5311,12 +5311,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Thotiana</t>
+          <t>Gang Related</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Blueface</t>
+          <t>Logic</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -5339,12 +5339,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Papa Americano</t>
+          <t>Did It Again</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Beat The Track</t>
+          <t>Lil Tecca</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5353,11 +5353,11 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -5367,12 +5367,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Sweet but Psycho - Leon Lour Remix</t>
+          <t>Godzilla (feat. Juice WRLD)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Ava Max, Leon Lour</t>
+          <t>Eminem, Juice WRLD</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5381,11 +5381,11 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -5395,12 +5395,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Piece Of Your Heart</t>
+          <t>Peta (feat. Meek Mill)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>MEDUZA, Goodboys</t>
+          <t>Roddy Ricch, Meek Mill</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5409,11 +5409,11 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -5423,12 +5423,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ready Or Not</t>
+          <t>Thotiana</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Madison Mars</t>
+          <t>Blueface</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5437,11 +5437,11 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -5451,12 +5451,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Warm It Up</t>
+          <t>Papa Americano</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Logic, Young Sinatra</t>
+          <t>Beat The Track</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5465,11 +5465,11 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -5479,12 +5479,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Homicide (feat. Eminem)</t>
+          <t>Sweet but Psycho - Leon Lour Remix</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Logic, Eminem</t>
+          <t>Ava Max, Leon Lour</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5493,11 +5493,11 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -5507,12 +5507,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Hips Don't Lie (feat. Wyclef Jean)</t>
+          <t>Piece Of Your Heart</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Shakira, Wyclef Jean</t>
+          <t>MEDUZA, Goodboys</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5521,11 +5521,11 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -5535,12 +5535,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Treat You Better</t>
+          <t>Ready Or Not</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Shawn Mendes</t>
+          <t>Madison Mars</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5549,11 +5549,11 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -5563,12 +5563,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Somebody</t>
+          <t>Warm It Up</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>The Chainsmokers, Drew Love</t>
+          <t>Logic, Young Sinatra</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5577,11 +5577,11 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -5591,12 +5591,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Stronger</t>
+          <t>Homicide (feat. Eminem)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Kanye West</t>
+          <t>Logic, Eminem</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5605,7 +5605,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -5619,12 +5619,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Buttered Up</t>
+          <t>Hips Don't Lie (feat. Wyclef Jean)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Yung Gravy, Juicy J</t>
+          <t>Shakira, Wyclef Jean</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5633,7 +5633,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -5647,12 +5647,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Magic</t>
+          <t>Treat You Better</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Yung Gravy</t>
+          <t>Shawn Mendes</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5661,11 +5661,11 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -5675,21 +5675,21 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>We Found Love (feat. Rihanna)</t>
+          <t>Somebody</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Calvin Harris, Rihanna</t>
+          <t>The Chainsmokers, Drew Love</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -5703,25 +5703,25 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Path</t>
+          <t>Stronger</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Jay Eskar</t>
+          <t>Kanye West</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -5731,21 +5731,21 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>UCLA</t>
+          <t>Buttered Up</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>RL Grime, 24hrs</t>
+          <t>Yung Gravy, Juicy J</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -5759,21 +5759,21 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Uproar</t>
+          <t>Magic</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Lil Wayne, Swizz Beatz</t>
+          <t>Yung Gravy</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -5787,12 +5787,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Go Stupid</t>
+          <t>We Found Love (feat. Rihanna)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Polo G, Stunna 4 Vegas, NLE Choppa, Mike WiLL Made-It</t>
+          <t>Calvin Harris, Rihanna</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5801,11 +5801,11 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -5815,12 +5815,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Magic In The Hamptons (feat. Lil Yachty)</t>
+          <t>Path</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Social House, Lil Yachty</t>
+          <t>Jay Eskar</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5829,11 +5829,11 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -5843,12 +5843,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DNA.</t>
+          <t>UCLA</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Kendrick Lamar</t>
+          <t>RL Grime, 24hrs</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Look At Me!</t>
+          <t>Uproar</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>XXXTENTACION</t>
+          <t>Lil Wayne, Swizz Beatz</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5885,7 +5885,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -5899,12 +5899,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>This Feeling</t>
+          <t>Go Stupid</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>The Chainsmokers, Kelsea Ballerini</t>
+          <t>Polo G, Stunna 4 Vegas, NLE Choppa, Mike WiLL Made-It</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5913,11 +5913,11 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -5927,12 +5927,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>IDWK</t>
+          <t>Magic In The Hamptons (feat. Lil Yachty)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>DVBBS, blackbear</t>
+          <t>Social House, Lil Yachty</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -5955,12 +5955,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Rise</t>
+          <t>DNA.</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Jonas Blue, Jack &amp; Jack</t>
+          <t>Kendrick Lamar</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5969,11 +5969,11 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -5983,12 +5983,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Rich Boy</t>
+          <t>Look At Me!</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Galantis</t>
+          <t>XXXTENTACION</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5997,11 +5997,11 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -6011,12 +6011,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Rolex</t>
+          <t>This Feeling</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Ayo &amp; Teo</t>
+          <t>The Chainsmokers, Kelsea Ballerini</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6025,11 +6025,11 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -6039,12 +6039,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Get Low</t>
+          <t>IDWK</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Ying Yang Twins, Lil Jon &amp; The East Side Boyz</t>
+          <t>DVBBS, blackbear</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6053,7 +6053,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -6067,12 +6067,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Lifestyle</t>
+          <t>Rise</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Rich Gang, Young Thug, Rich Homie Quan</t>
+          <t>Jonas Blue, Jack &amp; Jack</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6081,11 +6081,11 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -6095,12 +6095,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Ignition - Remix</t>
+          <t>Rich Boy</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>R. Kelly</t>
+          <t>Galantis</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6109,11 +6109,11 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -6123,12 +6123,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>No Hands (feat. Roscoe Dash &amp; Wale)</t>
+          <t>Rolex</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Waka Flocka Flame, Roscoe Dash, Wale</t>
+          <t>Ayo &amp; Teo</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6137,7 +6137,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -6151,12 +6151,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Ready</t>
+          <t>Get Low</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>WiDE AWAKE</t>
+          <t>Ying Yang Twins, Lil Jon &amp; The East Side Boyz</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -6179,12 +6179,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Love So Soft - Cash Cash Remix</t>
+          <t>Lifestyle</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Kelly Clarkson, Cash Cash</t>
+          <t>Rich Gang, Young Thug, Rich Homie Quan</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6193,11 +6193,11 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -6207,12 +6207,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Drive Me Home - Official Animal Sound 2019 Anthem</t>
+          <t>Ignition - Remix</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Jordan Jay, Charlie Ray, David Jarvis</t>
+          <t>R. Kelly</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6221,11 +6221,11 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -6235,12 +6235,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>I Got Love (feat. Nate Dogg)</t>
+          <t>No Hands (feat. Roscoe Dash &amp; Wale)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Don Diablo, Nate Dogg</t>
+          <t>Waka Flocka Flame, Roscoe Dash, Wale</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6249,7 +6249,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -6263,12 +6263,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Hero</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Jay Cosmic, Happy Sometimes</t>
+          <t>WiDE AWAKE</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6277,11 +6277,11 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -6291,12 +6291,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ocho Cinco</t>
+          <t>Love So Soft - Cash Cash Remix</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>DJ Snake, Yellow Claw</t>
+          <t>Kelly Clarkson, Cash Cash</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6305,11 +6305,11 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -6319,12 +6319,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Latency</t>
+          <t>Drive Me Home - Official Animal Sound 2019 Anthem</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Martin Garrix, Dyro</t>
+          <t>Jordan Jay, Charlie Ray, David Jarvis</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -6347,12 +6347,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Colors - Audien Remix</t>
+          <t>I Got Love (feat. Nate Dogg)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Halsey, Audien</t>
+          <t>Don Diablo, Nate Dogg</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6361,11 +6361,11 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -6375,12 +6375,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Wassup</t>
+          <t>Hero</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Logic, Big Sean</t>
+          <t>Jay Cosmic, Happy Sometimes</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6389,11 +6389,11 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -6403,12 +6403,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Mr. Brightside</t>
+          <t>Ocho Cinco</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>The Killers</t>
+          <t>DJ Snake, Yellow Claw</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6417,11 +6417,11 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -6431,12 +6431,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Hotel Room Service</t>
+          <t>Latency</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Pitbull</t>
+          <t>Martin Garrix, Dyro</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6445,11 +6445,11 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -6459,12 +6459,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>We Found Love</t>
+          <t>Colors - Audien Remix</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Rihanna, Calvin Harris</t>
+          <t>Halsey, Audien</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6473,7 +6473,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -6487,12 +6487,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Time of Our Lives</t>
+          <t>Wassup</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Pitbull, Ne-Yo</t>
+          <t>Logic, Big Sean</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6501,7 +6501,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -6515,12 +6515,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>All Night Longer</t>
+          <t>Mr. Brightside</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Sammy Adams</t>
+          <t>The Killers</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6529,11 +6529,11 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -6543,12 +6543,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Ni**as In Paris</t>
+          <t>Hotel Room Service</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>JAY-Z, Kanye West</t>
+          <t>Pitbull</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6557,7 +6557,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -6571,12 +6571,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Shots</t>
+          <t>We Found Love</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>LMFAO, Lil Jon</t>
+          <t>Rihanna, Calvin Harris</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -6599,12 +6599,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>24K Magic</t>
+          <t>Time of Our Lives</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Bruno Mars</t>
+          <t>Pitbull, Ne-Yo</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6613,11 +6613,11 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -6627,12 +6627,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Riptide</t>
+          <t>All Night Longer</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Vance Joy</t>
+          <t>Sammy Adams</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6641,11 +6641,11 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -6655,12 +6655,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Classic</t>
+          <t>Ni**as In Paris</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>MKTO</t>
+          <t>JAY-Z, Kanye West</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -6683,12 +6683,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Chandelier</t>
+          <t>Shots</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Sia</t>
+          <t>LMFAO, Lil Jon</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6697,11 +6697,11 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -6711,12 +6711,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Stitches</t>
+          <t>24K Magic</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Shawn Mendes</t>
+          <t>Bruno Mars</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6725,7 +6725,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -6739,12 +6739,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Burn</t>
+          <t>Riptide</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Ellie Goulding</t>
+          <t>Vance Joy</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -6767,12 +6767,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Little Talks</t>
+          <t>Classic</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Of Monsters and Men</t>
+          <t>MKTO</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6781,11 +6781,11 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -6795,12 +6795,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Don't</t>
+          <t>Chandelier</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Ed Sheeran</t>
+          <t>Sia</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -6823,12 +6823,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>The Greatest (feat. Kendrick Lamar)</t>
+          <t>Stitches</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Sia, Kendrick Lamar</t>
+          <t>Shawn Mendes</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6837,11 +6837,11 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>192</v>
+        <v>73</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -6851,12 +6851,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Sweet but Psycho</t>
+          <t>Burn</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Ava Max</t>
+          <t>Ellie Goulding</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6865,7 +6865,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -6879,12 +6879,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Body</t>
+          <t>Little Talks</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Loud Luxury, Brando</t>
+          <t>Of Monsters and Men</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6893,11 +6893,11 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -6907,12 +6907,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Latch</t>
+          <t>Don't</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Disclosure, Sam Smith</t>
+          <t>Ed Sheeran</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -6935,12 +6935,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Animals</t>
+          <t>The Greatest (feat. Kendrick Lamar)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Martin Garrix</t>
+          <t>Sia, Kendrick Lamar</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6949,11 +6949,11 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -6963,12 +6963,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Overnight</t>
+          <t>Sweet but Psycho</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Logic</t>
+          <t>Ava Max</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6977,11 +6977,11 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -6991,12 +6991,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>This Feeling - Young Bombs Remix</t>
+          <t>Body</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>The Chainsmokers, Kelsea Ballerini, Young Bombs</t>
+          <t>Loud Luxury, Brando</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7005,7 +7005,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -7019,12 +7019,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Off The Goop</t>
+          <t>Latch</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Yung Gravy, bbno$, Cuco</t>
+          <t>Disclosure, Sam Smith</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7033,11 +7033,11 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -7047,25 +7047,25 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Treasure</t>
+          <t>Animals</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Bruno Mars</t>
+          <t>Martin Garrix</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -7075,21 +7075,21 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Panini - DaBaby Remix</t>
+          <t>Overnight</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Lil Nas X, DaBaby</t>
+          <t>Logic</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -7103,25 +7103,25 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>rockstar (feat. 21 Savage)</t>
+          <t>This Feeling - Young Bombs Remix</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Post Malone, 21 Savage</t>
+          <t>The Chainsmokers, Kelsea Ballerini, Young Bombs</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -7131,21 +7131,21 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>rockstar</t>
+          <t>Off The Goop</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Post Malone, 21 Savage</t>
+          <t>Yung Gravy, bbno$, Cuco</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -7159,12 +7159,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>BAD!</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>XXXTENTACION</t>
+          <t>Bruno Mars</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -7173,11 +7173,11 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -7187,12 +7187,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Bandit (with YoungBoy Never Broke Again)</t>
+          <t>Panini - DaBaby Remix</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Juice WRLD, YoungBoy Never Broke Again</t>
+          <t>Lil Nas X, DaBaby</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -7201,7 +7201,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -7215,12 +7215,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Stain (feat. DaBaby)</t>
+          <t>rockstar (feat. 21 Savage)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>A Boogie Wit da Hoodie, DaBaby</t>
+          <t>Post Malone, 21 Savage</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -7243,12 +7243,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Love Drugs and Sex</t>
+          <t>rockstar</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>A Boogie Wit da Hoodie</t>
+          <t>Post Malone, 21 Savage</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -7271,12 +7271,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Money Longer</t>
+          <t>BAD!</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Lil Uzi Vert</t>
+          <t>XXXTENTACION</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -7299,12 +7299,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Stay</t>
+          <t>Bandit (with YoungBoy Never Broke Again)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Zedd, Alessia Cara</t>
+          <t>Juice WRLD, YoungBoy Never Broke Again</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7313,11 +7313,11 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -7327,12 +7327,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Lullaby</t>
+          <t>Stain (feat. DaBaby)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Sigala, Paloma Faith</t>
+          <t>A Boogie Wit da Hoodie, DaBaby</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7341,11 +7341,11 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -7355,12 +7355,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Congratulations</t>
+          <t>Love Drugs and Sex</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>pewdiepie, Roomie, Boyinaband</t>
+          <t>A Boogie Wit da Hoodie</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7369,7 +7369,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -7383,12 +7383,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Colorblind</t>
+          <t>Money Longer</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Panda Eyes</t>
+          <t>Lil Uzi Vert</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7397,11 +7397,11 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -7411,12 +7411,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Peanut Butter Jelly</t>
+          <t>Stay</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Galantis</t>
+          <t>Zedd, Alessia Cara</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7425,7 +7425,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -7439,12 +7439,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>1-800-273-8255</t>
+          <t>Lullaby</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Logic, Alessia Cara, Khalid</t>
+          <t>Sigala, Paloma Faith</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7453,11 +7453,11 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -7467,12 +7467,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>My Bad</t>
+          <t>Congratulations</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Khalid</t>
+          <t>pewdiepie, Roomie, Boyinaband</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -7481,11 +7481,11 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -7495,12 +7495,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Right Back</t>
+          <t>Colorblind</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Khalid</t>
+          <t>Panda Eyes</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -7509,11 +7509,11 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -7523,12 +7523,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Party Rock Anthem</t>
+          <t>Peanut Butter Jelly</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>LMFAO, Lauren Bennett, GoonRock</t>
+          <t>Galantis</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -7537,11 +7537,11 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -7551,12 +7551,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Here With Me</t>
+          <t>1-800-273-8255</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Marshmello, CHVRCHES</t>
+          <t>Logic, Alessia Cara, Khalid</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -7579,12 +7579,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Summer Days (feat. Macklemore &amp; Patrick Stump of Fall Out Boy)</t>
+          <t>My Bad</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Martin Garrix, Macklemore, Fall Out Boy</t>
+          <t>Khalid</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -7593,11 +7593,11 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -7607,12 +7607,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Five Hours</t>
+          <t>Right Back</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Deorro</t>
+          <t>Khalid</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -7621,11 +7621,11 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -7635,21 +7635,21 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Let Me Love You - Don Diablo Remix</t>
+          <t>Party Rock Anthem</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>DJ Snake, Don Diablo, Justin Bieber</t>
+          <t>LMFAO, Lauren Bennett, GoonRock</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -7663,21 +7663,21 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>I Need Your Love (feat. Ellie Goulding)</t>
+          <t>Here With Me</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Calvin Harris, Ellie Goulding</t>
+          <t>Marshmello, CHVRCHES</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -7691,21 +7691,21 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>MIDDLE CHILD</t>
+          <t>Summer Days (feat. Macklemore &amp; Patrick Stump of Fall Out Boy)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>J. Cole</t>
+          <t>Martin Garrix, Macklemore, Fall Out Boy</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -7719,25 +7719,25 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>SICKO MODE</t>
+          <t>Five Hours</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Travis Scott</t>
+          <t>Deorro</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -7747,21 +7747,21 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>STARGAZING</t>
+          <t>What Lovers Do (feat. SZA)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Travis Scott</t>
+          <t>Maroon 5, SZA</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -7775,12 +7775,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Contra</t>
+          <t>Let Me Love You - Don Diablo Remix</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Logic</t>
+          <t>DJ Snake, Don Diablo, Justin Bieber</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7803,12 +7803,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Closer</t>
+          <t>I Need Your Love (feat. Ellie Goulding)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>The Chainsmokers, Halsey</t>
+          <t>Calvin Harris, Ellie Goulding</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -7817,7 +7817,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -7831,12 +7831,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Who Do You Love - R3HAB Remix</t>
+          <t>MIDDLE CHILD</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>The Chainsmokers, 5 Seconds of Summer, R3HAB</t>
+          <t>J. Cole</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7845,11 +7845,11 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -7859,12 +7859,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>I Want You Back</t>
+          <t>SICKO MODE</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>The Jackson 5</t>
+          <t>Travis Scott</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7873,11 +7873,11 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -7887,12 +7887,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>CoCo</t>
+          <t>STARGAZING</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>O.T. Genasis</t>
+          <t>Travis Scott</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7901,7 +7901,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -7915,12 +7915,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Contra</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Kiiara</t>
+          <t>Logic</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7929,11 +7929,11 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -7943,12 +7943,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Our Story - Radio Edit</t>
+          <t>Closer</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Mako</t>
+          <t>The Chainsmokers, Halsey</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -7971,12 +7971,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Clarity</t>
+          <t>Who Do You Love - R3HAB Remix</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Zedd, Foxes</t>
+          <t>The Chainsmokers, 5 Seconds of Summer, R3HAB</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7985,7 +7985,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -7999,12 +7999,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Walking On Fire - Daniel Garrick Edit</t>
+          <t>I Want You Back</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Arcando, Jordan Pax, Thomas Daniel, Daniel Garrick</t>
+          <t>The Jackson 5</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -8013,11 +8013,11 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -8027,12 +8027,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Everytime We Touch (Hardwell &amp; Maurice West Remix)</t>
+          <t>CoCo</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Cascada, Hardwell, Maurice West</t>
+          <t>O.T. Genasis</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -8041,7 +8041,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -8055,12 +8055,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Closer - Shaun Frank Remix</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>The Chainsmokers, Halsey, Shaun Frank</t>
+          <t>Kiiara</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -8069,11 +8069,11 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -8083,12 +8083,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Roses - Imanbek Remix</t>
+          <t>Our Story - Radio Edit</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>SAINt JHN, Imanbek</t>
+          <t>Mako</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -8097,11 +8097,11 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -8111,12 +8111,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>GUD VIBRATIONS</t>
+          <t>Clarity</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>NGHTMRE, SLANDER</t>
+          <t>Zedd, Foxes</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -8125,11 +8125,11 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -8139,12 +8139,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Good Grief - Don Diablo Remix</t>
+          <t>Walking On Fire - Daniel Garrick Edit</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Bastille, Don Diablo</t>
+          <t>Arcando, Jordan Pax, Thomas Daniel, Daniel Garrick</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -8153,11 +8153,11 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -8167,12 +8167,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Psycho (feat. Ty Dolla $ign)</t>
+          <t>Everytime We Touch (Hardwell &amp; Maurice West Remix)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Post Malone, Ty Dolla $ign</t>
+          <t>Cascada, Hardwell, Maurice West</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -8195,12 +8195,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Give Me Everything (feat. Ne-Yo, Afrojack &amp; Nayer)</t>
+          <t>Closer - Shaun Frank Remix</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Pitbull, Ne-Yo, Afrojack, Nayer</t>
+          <t>The Chainsmokers, Halsey, Shaun Frank</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -8209,11 +8209,11 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -8223,12 +8223,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Broccoli</t>
+          <t>Roses - Imanbek Remix</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Shelley FKA DRAM, Lil Yachty</t>
+          <t>SAINt JHN, Imanbek</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -8237,7 +8237,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -8251,12 +8251,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Let Me Love You</t>
+          <t>GUD VIBRATIONS</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>DJ Snake, Justin Bieber</t>
+          <t>NGHTMRE, SLANDER</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -8265,7 +8265,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -8279,12 +8279,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Issues</t>
+          <t>Good Grief - Don Diablo Remix</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Julia Michaels</t>
+          <t>Bastille, Don Diablo</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8293,11 +8293,11 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -8307,12 +8307,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Work from Home (feat. Ty Dolla $ign)</t>
+          <t>Psycho (feat. Ty Dolla $ign)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Fifth Harmony, Ty Dolla $ign</t>
+          <t>Post Malone, Ty Dolla $ign</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -8335,12 +8335,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Let Me Go (with Alesso, Florida Georgia Line &amp; watt)</t>
+          <t>Give Me Everything (feat. Ne-Yo, Afrojack &amp; Nayer)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Hailee Steinfeld, Alesso, Florida Georgia Line, watt</t>
+          <t>Pitbull, Ne-Yo, Afrojack, Nayer</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8349,11 +8349,11 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -8363,12 +8363,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Good Old Days (feat. Kesha)</t>
+          <t>Broccoli</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Macklemore, Kesha</t>
+          <t>Shelley FKA DRAM, Lil Yachty</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8377,7 +8377,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -8391,12 +8391,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Stargazing</t>
+          <t>Let Me Love You</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Kygo, Justin Jesso</t>
+          <t>DJ Snake, Justin Bieber</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8405,11 +8405,11 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -8419,12 +8419,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>bury a friend</t>
+          <t>Issues</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Billie Eilish</t>
+          <t>Julia Michaels</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -8433,7 +8433,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -8447,12 +8447,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Hate Me (with Juice WRLD)</t>
+          <t>Work from Home (feat. Ty Dolla $ign)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Ellie Goulding, Juice WRLD</t>
+          <t>Fifth Harmony, Ty Dolla $ign</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -8461,7 +8461,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -8475,12 +8475,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>My Oh My (feat. DaBaby)</t>
+          <t>Let Me Go (with Alesso, Florida Georgia Line &amp; watt)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Camila Cabello, DaBaby</t>
+          <t>Hailee Steinfeld, Alesso, Florida Georgia Line, watt</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -8489,11 +8489,11 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -8503,12 +8503,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>The Boys Are Back In Town</t>
+          <t>Good Old Days (feat. Kesha)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Yung Gravy, Pouya, Ramirez, TrippyThaKid</t>
+          <t>Macklemore, Kesha</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -8531,25 +8531,25 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Glorious (feat. Skylar Grey)</t>
+          <t>Stargazing</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Macklemore, Skylar Grey</t>
+          <t>Kygo, Justin Jesso</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -8559,25 +8559,25 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>THE SCOTTS</t>
+          <t>bury a friend</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>THE SCOTTS, Travis Scott, Kid Cudi</t>
+          <t>Billie Eilish</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -8587,25 +8587,25 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Titanium (feat. Sia)</t>
+          <t>Hate Me (with Juice WRLD)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>David Guetta, Sia</t>
+          <t>Ellie Goulding, Juice WRLD</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -8615,25 +8615,25 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Hymn for the Weekend - Seeb Remix</t>
+          <t>My Oh My (feat. DaBaby)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Coldplay, Seeb</t>
+          <t>Camila Cabello, DaBaby</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -8643,25 +8643,25 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Sweet Dreams (Are Made of This) - Remastered</t>
+          <t>The Boys Are Back In Town</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Eurythmics, Annie Lennox, Dave Stewart</t>
+          <t>Yung Gravy, Pouya, Ramirez, TrippyThaKid</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -8671,12 +8671,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Symphony (feat. Zara Larsson) - Dash Berlin Remix</t>
+          <t>Glorious (feat. Skylar Grey)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Clean Bandit, Zara Larsson, Dash Berlin</t>
+          <t>Macklemore, Skylar Grey</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -8685,11 +8685,11 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -8699,12 +8699,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Windfall</t>
+          <t>THE SCOTTS</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>TheFatRat</t>
+          <t>THE SCOTTS, Travis Scott, Kid Cudi</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -8713,11 +8713,11 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -8727,12 +8727,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>I Miss You (feat. Julia Michaels)</t>
+          <t>Titanium (feat. Sia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Clean Bandit, Julia Michaels</t>
+          <t>David Guetta, Sia</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -8741,7 +8741,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -8755,12 +8755,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Better</t>
+          <t>Hymn for the Weekend - Seeb Remix</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Khalid</t>
+          <t>Coldplay, Seeb</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -8769,11 +8769,11 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -8783,12 +8783,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Me, Myself &amp; I</t>
+          <t>Sweet Dreams (Are Made of This) - Remastered</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>G-Eazy, Bebe Rexha</t>
+          <t>Eurythmics, Annie Lennox, Dave Stewart</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -8797,11 +8797,11 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -8811,12 +8811,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Bang Bang</t>
+          <t>Symphony (feat. Zara Larsson) - Dash Berlin Remix</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Jessie J, Ariana Grande, Nicki Minaj</t>
+          <t>Clean Bandit, Zara Larsson, Dash Berlin</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -8825,11 +8825,11 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -8839,12 +8839,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Symphony (feat. Zara Larsson)</t>
+          <t>Windfall</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Clean Bandit, Zara Larsson</t>
+          <t>TheFatRat</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -8853,11 +8853,11 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -8867,12 +8867,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Jocelyn Flores</t>
+          <t>I Miss You (feat. Julia Michaels)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>XXXTENTACION</t>
+          <t>Clean Bandit, Julia Michaels</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -8881,11 +8881,11 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -8895,12 +8895,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Fuck Love (feat. Trippie Redd)</t>
+          <t>Better</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>XXXTENTACION, Trippie Redd</t>
+          <t>Khalid</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -8909,11 +8909,11 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -8923,12 +8923,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Charlene</t>
+          <t>Me, Myself &amp; I</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Yung Gravy, MIA GLADSTONE</t>
+          <t>G-Eazy, Bebe Rexha</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -8937,7 +8937,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -8951,25 +8951,25 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Born To Be Yours</t>
+          <t>Bang Bang</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Kygo, Imagine Dragons</t>
+          <t>Jessie J, Ariana Grande, Nicki Minaj</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E305" t="n">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -8979,21 +8979,21 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Takeaway (feat. Lennon Stella)</t>
+          <t>Symphony (feat. Zara Larsson)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>The Chainsmokers, ILLENIUM, Lennon Stella</t>
+          <t>Clean Bandit, Zara Larsson</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E306" t="n">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -9007,25 +9007,25 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Fireflies</t>
+          <t>Jocelyn Flores</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Owl City</t>
+          <t>XXXTENTACION</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E307" t="n">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -9035,25 +9035,25 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Bad Liar</t>
+          <t>Fuck Love (feat. Trippie Redd)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Imagine Dragons</t>
+          <t>XXXTENTACION, Trippie Redd</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E308" t="n">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -9063,25 +9063,25 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Who Do You Love</t>
+          <t>Charlene</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>The Chainsmokers, 5 Seconds of Summer</t>
+          <t>Yung Gravy, MIA GLADSTONE</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E309" t="n">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -9091,25 +9091,25 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ransom (with Juice WRLD) - Remix</t>
+          <t>Born To Be Yours</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Lil Tecca, Juice WRLD</t>
+          <t>Kygo, Imagine Dragons</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>6A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E310" t="n">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -9119,25 +9119,25 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Lean On</t>
+          <t>Takeaway (feat. Lennon Stella)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Major Lazer, MÃ˜, DJ Snake</t>
+          <t>The Chainsmokers, ILLENIUM, Lennon Stella</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>6A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E311" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -9147,25 +9147,25 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>HIGHEST IN THE ROOM</t>
+          <t>Fireflies</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Travis Scott</t>
+          <t>Owl City</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>6A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E312" t="n">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -9175,25 +9175,25 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Skeezers</t>
+          <t>Bad Liar</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>A Boogie Wit da Hoodie</t>
+          <t>Imagine Dragons</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>6A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E313" t="n">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -9203,21 +9203,21 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Break Free</t>
+          <t>Who Do You Love</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Ariana Grande, Zedd</t>
+          <t>The Chainsmokers, 5 Seconds of Summer</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>6A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E314" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -9231,12 +9231,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>What Is Love</t>
+          <t>Ransom (with Juice WRLD) - Remix</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Haddaway</t>
+          <t>Lil Tecca, Juice WRLD</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -9245,11 +9245,11 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -9259,12 +9259,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Reality</t>
+          <t>Lean On</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Adventurer</t>
+          <t>Major Lazer, MÃ˜, DJ Snake</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -9273,11 +9273,11 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -9287,12 +9287,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Blackout</t>
+          <t>HIGHEST IN THE ROOM</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Tritonal, Steph Jones</t>
+          <t>Travis Scott</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -9301,11 +9301,11 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -9315,12 +9315,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Pretty Girl - Cheat Codes X CADE Remix</t>
+          <t>Skeezers</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Maggie Lindemann, Cheat Codes, CADE</t>
+          <t>A Boogie Wit da Hoodie</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -9329,7 +9329,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -9343,12 +9343,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Take Me Back</t>
+          <t>Break Free</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Yellow Claw, CORSAK, Julia Wu</t>
+          <t>Ariana Grande, Zedd</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -9357,11 +9357,11 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -9371,12 +9371,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>My House</t>
+          <t>What Is Love</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Flo Rida</t>
+          <t>Haddaway</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -9385,11 +9385,11 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -9399,12 +9399,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Glad You Came</t>
+          <t>Reality</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>The Wanted</t>
+          <t>Adventurer</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -9413,11 +9413,11 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -9427,12 +9427,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Youngblood</t>
+          <t>Blackout</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>5 Seconds of Summer</t>
+          <t>Tritonal, Steph Jones</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -9441,11 +9441,11 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -9455,12 +9455,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>92 Explorer</t>
+          <t>Pretty Girl - Cheat Codes X CADE Remix</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Post Malone</t>
+          <t>Maggie Lindemann, Cheat Codes, CADE</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -9469,7 +9469,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -9483,12 +9483,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Everybody Dies In Their Nightmares</t>
+          <t>Take Me Back</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>XXXTENTACION</t>
+          <t>Yellow Claw, CORSAK, Julia Wu</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -9497,7 +9497,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -9511,25 +9511,25 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Say You Won't Let Go</t>
+          <t>My House</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>James Arthur</t>
+          <t>Flo Rida</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>6B</t>
+          <t>6A</t>
         </is>
       </c>
       <c r="E325" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -9539,21 +9539,21 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>10,000 Hours (with Justin Bieber)</t>
+          <t>Glad You Came</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Dan + Shay, Justin Bieber</t>
+          <t>The Wanted</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>6B</t>
+          <t>6A</t>
         </is>
       </c>
       <c r="E326" t="n">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -9567,25 +9567,25 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>See You Again (feat. Charlie Puth)</t>
+          <t>Youngblood</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Wiz Khalifa, Charlie Puth</t>
+          <t>5 Seconds of Summer</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>6B</t>
+          <t>6A</t>
         </is>
       </c>
       <c r="E327" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -9595,21 +9595,21 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>No Promises (feat. Demi Lovato)</t>
+          <t>92 Explorer</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Cheat Codes, Demi Lovato</t>
+          <t>Post Malone</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>6B</t>
+          <t>6A</t>
         </is>
       </c>
       <c r="E328" t="n">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -9623,17 +9623,17 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Armed And Dangerous</t>
+          <t>Everybody Dies In Their Nightmares</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Juice WRLD</t>
+          <t>XXXTENTACION</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>6B</t>
+          <t>6A</t>
         </is>
       </c>
       <c r="E329" t="n">
@@ -9651,12 +9651,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Sweet Lovin' - Original Mix</t>
+          <t>Say You Won't Let Go</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Sigala, Bryn Christopher</t>
+          <t>James Arthur</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -9665,11 +9665,11 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -9679,12 +9679,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Sweet Lovin' - Radio Edit</t>
+          <t>10,000 Hours (with Justin Bieber)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Sigala, Bryn Christopher</t>
+          <t>Dan + Shay, Justin Bieber</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -9693,11 +9693,11 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -9707,12 +9707,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Drunk Enough to Say That I Love You</t>
+          <t>See You Again (feat. Charlie Puth)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>PLVTINUM</t>
+          <t>Wiz Khalifa, Charlie Puth</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -9721,11 +9721,11 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -9735,12 +9735,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Fireball (feat. John Ryan)</t>
+          <t>No Promises (feat. Demi Lovato)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Pitbull, John Ryan</t>
+          <t>Cheat Codes, Demi Lovato</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -9749,7 +9749,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -9763,12 +9763,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Meant to Be (feat. Florida Georgia Line)</t>
+          <t>Armed And Dangerous</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Bebe Rexha, Florida Georgia Line</t>
+          <t>Juice WRLD</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -9777,11 +9777,11 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -9791,12 +9791,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Lost In Japan - Remix</t>
+          <t>Sweet Lovin' - Original Mix</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Shawn Mendes, Zedd</t>
+          <t>Sigala, Bryn Christopher</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -9805,7 +9805,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -9819,12 +9819,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Better Now</t>
+          <t>Sweet Lovin' - Radio Edit</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Post Malone</t>
+          <t>Sigala, Bryn Christopher</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -9833,11 +9833,11 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -9847,12 +9847,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Knockout</t>
+          <t>Drunk Enough to Say That I Love You</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Yung Gravy</t>
+          <t>PLVTINUM</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -9861,11 +9861,11 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -9875,21 +9875,21 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Life Is Good (feat. Drake)</t>
+          <t>Fireball (feat. John Ryan)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Future, Drake</t>
+          <t>Pitbull, John Ryan</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>7A</t>
+          <t>6B</t>
         </is>
       </c>
       <c r="E338" t="n">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -9903,25 +9903,25 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Demons and Angels (feat. Juice WRLD)</t>
+          <t>Meant to Be (feat. Florida Georgia Line)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>A Boogie Wit da Hoodie, Juice WRLD</t>
+          <t>Bebe Rexha, Florida Georgia Line</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>7A</t>
+          <t>6B</t>
         </is>
       </c>
       <c r="E339" t="n">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -9931,25 +9931,25 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Suge</t>
+          <t>Lost In Japan - Remix</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>DaBaby</t>
+          <t>Shawn Mendes, Zedd</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>7A</t>
+          <t>6B</t>
         </is>
       </c>
       <c r="E340" t="n">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -9959,25 +9959,25 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Careless Whisper</t>
+          <t>Better Now</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>George Michael</t>
+          <t>Post Malone</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>7A</t>
+          <t>6B</t>
         </is>
       </c>
       <c r="E341" t="n">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -9987,25 +9987,25 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Closer Further</t>
+          <t>Knockout</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Toxic Emotion</t>
+          <t>Yung Gravy</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>7A</t>
+          <t>6B</t>
         </is>
       </c>
       <c r="E342" t="n">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -10015,12 +10015,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TiK ToK</t>
+          <t>Life Is Good (feat. Drake)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Kesha</t>
+          <t>Future, Drake</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -10029,11 +10029,11 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -10043,12 +10043,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>True Colors</t>
+          <t>Demons and Angels (feat. Juice WRLD)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Zedd</t>
+          <t>A Boogie Wit da Hoodie, Juice WRLD</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -10057,11 +10057,11 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -10071,25 +10071,25 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tell Me You Love Me</t>
+          <t>Suge</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Galantis, Throttle</t>
+          <t>DaBaby</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>7B</t>
+          <t>7A</t>
         </is>
       </c>
       <c r="E345" t="n">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -10099,25 +10099,25 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Seve - Radio Edit</t>
+          <t>Careless Whisper</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Tez Cadey</t>
+          <t>George Michael</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>7B</t>
+          <t>7A</t>
         </is>
       </c>
       <c r="E346" t="n">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -10127,21 +10127,21 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Astronomia</t>
+          <t>Closer Further</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Vicetone, Tony Igy</t>
+          <t>Toxic Emotion</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>7B</t>
+          <t>7A</t>
         </is>
       </c>
       <c r="E347" t="n">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -10155,25 +10155,25 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Easy Go</t>
+          <t>TiK ToK</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Grandtheft, Delaney Jane</t>
+          <t>Kesha</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>7B</t>
+          <t>7A</t>
         </is>
       </c>
       <c r="E348" t="n">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -10183,25 +10183,25 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Hold On (feat. Cheat Codes) - Radio Edit</t>
+          <t>True Colors</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Moguai, Cheat Codes</t>
+          <t>Zedd</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>7B</t>
+          <t>7A</t>
         </is>
       </c>
       <c r="E349" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -10211,12 +10211,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Heroes (we could be)</t>
+          <t>Tell Me You Love Me</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Alesso, Tove Lo</t>
+          <t>Galantis, Throttle</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -10225,11 +10225,11 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -10239,12 +10239,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Stay</t>
+          <t>Seve - Radio Edit</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Post Malone</t>
+          <t>Tez Cadey</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -10253,11 +10253,11 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -10267,12 +10267,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>GDFR (feat. Sage the Gemini &amp; Lookas)</t>
+          <t>Astronomia</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Flo Rida, Sage The Gemini, Lookas</t>
+          <t>Vicetone, Tony Igy</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -10281,11 +10281,11 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -10295,12 +10295,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Happier</t>
+          <t>Easy Go</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Marshmello, Bastille</t>
+          <t>Grandtheft, Delaney Jane</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -10309,11 +10309,11 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -10323,12 +10323,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>High Hopes</t>
+          <t>Hold On (feat. Cheat Codes) - Radio Edit</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Panic! At The Disco</t>
+          <t>Moguai, Cheat Codes</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -10337,11 +10337,11 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -10351,12 +10351,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Easier</t>
+          <t>Heroes (we could be)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>5 Seconds of Summer</t>
+          <t>Alesso, Tove Lo</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -10365,11 +10365,11 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -10379,12 +10379,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Hey Look Ma, I Made It</t>
+          <t>Stay</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Panic! At The Disco</t>
+          <t>Post Malone</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -10393,11 +10393,11 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -10407,12 +10407,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Goodbyes (Feat. Young Thug)</t>
+          <t>GDFR (feat. Sage the Gemini &amp; Lookas)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Post Malone, Young Thug</t>
+          <t>Flo Rida, Sage The Gemini, Lookas</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -10435,25 +10435,25 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Moonlight</t>
+          <t>Happier</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>XXXTENTACION</t>
+          <t>Marshmello, Bastille</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>8A</t>
+          <t>7B</t>
         </is>
       </c>
       <c r="E358" t="n">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -10463,25 +10463,25 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Rockabye (feat. Sean Paul &amp; Anne-Marie)</t>
+          <t>High Hopes</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Clean Bandit, Sean Paul, Anne-Marie</t>
+          <t>Panic! At The Disco</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>8A</t>
+          <t>7B</t>
         </is>
       </c>
       <c r="E359" t="n">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -10491,25 +10491,25 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Light It Up - Remix</t>
+          <t>Easier</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Major Lazer, Nyla, Fuse ODG</t>
+          <t>5 Seconds of Summer</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>8A</t>
+          <t>7B</t>
         </is>
       </c>
       <c r="E360" t="n">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -10519,25 +10519,25 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>VALENTINO</t>
+          <t>Hey Look Ma, I Made It</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>24kGoldn</t>
+          <t>Panic! At The Disco</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>8A</t>
+          <t>7B</t>
         </is>
       </c>
       <c r="E361" t="n">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -10547,21 +10547,21 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Geek'd (feat. Lil Baby)</t>
+          <t>Goodbyes (Feat. Young Thug)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Bhad Bhabie, Lil Baby</t>
+          <t>Post Malone, Young Thug</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>8A</t>
+          <t>7B</t>
         </is>
       </c>
       <c r="E362" t="n">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -10575,25 +10575,25 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>On Our Own (feat. Natalie Major)</t>
+          <t>Body Like A Back Road</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Showtek, Brooks, Natalie Major</t>
+          <t>Sam Hunt</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>8A</t>
+          <t>7B</t>
         </is>
       </c>
       <c r="E363" t="n">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -10603,12 +10603,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Midnight</t>
+          <t>Moonlight</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Logic</t>
+          <t>XXXTENTACION</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -10617,7 +10617,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -10631,12 +10631,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>This Is What You Came For (feat. Rihanna)</t>
+          <t>Rockabye (feat. Sean Paul &amp; Anne-Marie)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Calvin Harris, Rihanna</t>
+          <t>Clean Bandit, Sean Paul, Anne-Marie</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -10645,11 +10645,11 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -10659,12 +10659,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Cold</t>
+          <t>Light It Up - Remix</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Maroon 5, Future</t>
+          <t>Major Lazer, Nyla, Fuse ODG</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -10673,7 +10673,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
@@ -10687,12 +10687,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>no tears left to cry</t>
+          <t>VALENTINO</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Ariana Grande</t>
+          <t>24kGoldn</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -10701,11 +10701,11 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -10715,12 +10715,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>FRIENDS</t>
+          <t>Geek'd (feat. Lil Baby)</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Marshmello, Anne-Marie</t>
+          <t>Bhad Bhabie, Lil Baby</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -10729,11 +10729,11 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -10743,12 +10743,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Carry On (from the Original Motion Picture "POKÃ‰MON Detective Pikachu")</t>
+          <t>On Our Own (feat. Natalie Major)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Kygo, Rita Ora</t>
+          <t>Showtek, Brooks, Natalie Major</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -10757,11 +10757,11 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -10771,12 +10771,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Writing on the Wall (feat. Post Malone &amp; Cardi B)</t>
+          <t>Midnight</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>French Montana, Rvssian, Post Malone, Cardi B</t>
+          <t>Logic</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -10785,7 +10785,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
@@ -10799,12 +10799,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Momentum</t>
+          <t>This Is What You Came For (feat. Rihanna)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Don Diablo</t>
+          <t>Calvin Harris, Rihanna</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -10813,7 +10813,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -10827,12 +10827,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Whip A Tesla</t>
+          <t>Cold</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Yung Gravy, bbno$</t>
+          <t>Maroon 5, Future</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -10841,7 +10841,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
@@ -10855,12 +10855,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>I Want You To Know</t>
+          <t>no tears left to cry</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Zedd, Selena Gomez</t>
+          <t>Ariana Grande</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -10869,11 +10869,11 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -10883,25 +10883,25 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>No Brainer</t>
+          <t>FRIENDS</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>DJ Khaled, Justin Bieber, Quavo, Chance the Rapper</t>
+          <t>Marshmello, Anne-Marie</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>8B</t>
+          <t>8A</t>
         </is>
       </c>
       <c r="E374" t="n">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -10911,21 +10911,21 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Saint-Tropez</t>
+          <t>Carry On (from the Original Motion Picture "POKÃ‰MON Detective Pikachu")</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Post Malone</t>
+          <t>Kygo, Rita Ora</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>8B</t>
+          <t>8A</t>
         </is>
       </c>
       <c r="E375" t="n">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -10939,25 +10939,25 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Cutting Shapes</t>
+          <t>Writing on the Wall (feat. Post Malone &amp; Cardi B)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Don Diablo</t>
+          <t>French Montana, Rvssian, Post Malone, Cardi B</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>8B</t>
+          <t>8A</t>
         </is>
       </c>
       <c r="E376" t="n">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -10967,25 +10967,25 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Blueberry Faygo</t>
+          <t>Momentum</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Lil Mosey</t>
+          <t>Don Diablo</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>8B</t>
+          <t>8A</t>
         </is>
       </c>
       <c r="E377" t="n">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -10995,21 +10995,21 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Remind Me to Forget</t>
+          <t>Whip A Tesla</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Kygo, Miguel</t>
+          <t>Yung Gravy, bbno$</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>8B</t>
+          <t>8A</t>
         </is>
       </c>
       <c r="E378" t="n">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
@@ -11023,21 +11023,21 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Bones (feat. OneRepublic)</t>
+          <t>I Want You To Know</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Galantis, OneRepublic</t>
+          <t>Zedd, Selena Gomez</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>8B</t>
+          <t>8A</t>
         </is>
       </c>
       <c r="E379" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
@@ -11051,12 +11051,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Dragostea Din Tei - Original Italian Version</t>
+          <t>No Brainer</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>O-Zone</t>
+          <t>DJ Khaled, Justin Bieber, Quavo, Chance the Rapper</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -11065,11 +11065,11 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -11079,12 +11079,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tuesday (feat. Drake)</t>
+          <t>Saint-Tropez</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>ILOVEMAKONNEN, Drake</t>
+          <t>Post Malone</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -11093,7 +11093,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
@@ -11107,12 +11107,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Piano Man</t>
+          <t>Cutting Shapes</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Billy Joel</t>
+          <t>Don Diablo</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -11121,11 +11121,11 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -11135,12 +11135,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Lean on Me</t>
+          <t>Blueberry Faygo</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Bill Withers</t>
+          <t>Lil Mosey</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -11149,11 +11149,11 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -11163,12 +11163,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Show Me Love - EDX Remix / Radio Edit</t>
+          <t>Remind Me to Forget</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Sam Feldt, Kimberly Anne, EDX</t>
+          <t>Kygo, Miguel</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -11177,11 +11177,11 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -11191,12 +11191,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>These Heights (feat. Caroline Pennell)</t>
+          <t>Bones (feat. OneRepublic)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Bassjackers, Lucas &amp; Steve, Caroline Pennell</t>
+          <t>Galantis, OneRepublic</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
@@ -11219,12 +11219,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Super Mario World</t>
+          <t>Dragostea Din Tei - Original Italian Version</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Logic</t>
+          <t>O-Zone</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -11233,11 +11233,11 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -11247,12 +11247,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>Tuesday (feat. Drake)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Jon Bellion</t>
+          <t>ILOVEMAKONNEN, Drake</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -11261,7 +11261,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
@@ -11275,12 +11275,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Talk (feat. Disclosure)</t>
+          <t>Piano Man</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Khalid, Disclosure</t>
+          <t>Billy Joel</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -11289,11 +11289,11 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -11303,12 +11303,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Feeling Whitney</t>
+          <t>Lean on Me</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Post Malone</t>
+          <t>Bill Withers</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -11317,11 +11317,11 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -11331,12 +11331,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>I Gotta Feeling</t>
+          <t>Show Me Love - EDX Remix / Radio Edit</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Black Eyed Peas</t>
+          <t>Sam Feldt, Kimberly Anne, EDX</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -11345,11 +11345,11 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -11359,12 +11359,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Young, Wild &amp; Free (feat. Bruno Mars)</t>
+          <t>These Heights (feat. Caroline Pennell)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Snoop Dogg, Wiz Khalifa, Bruno Mars</t>
+          <t>Bassjackers, Lucas &amp; Steve, Caroline Pennell</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -11373,11 +11373,11 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -11387,12 +11387,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Evacuate the Dancefloor - Radio Edit</t>
+          <t>Super Mario World</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Cascada</t>
+          <t>Logic</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -11401,7 +11401,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
@@ -11415,12 +11415,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Jump - 2015 Remaster</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Van Halen</t>
+          <t>Jon Bellion</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -11429,11 +11429,11 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -11443,12 +11443,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>I'm an Albatraoz</t>
+          <t>Talk (feat. Disclosure)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>AronChupa</t>
+          <t>Khalid, Disclosure</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -11457,7 +11457,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
@@ -11471,12 +11471,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>All Time Low</t>
+          <t>Feeling Whitney</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Jon Bellion</t>
+          <t>Post Malone</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -11485,7 +11485,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -11499,12 +11499,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>CAN'T STOP THE FEELING! (Original Song from DreamWorks Animation's "TROLLS")</t>
+          <t>I Gotta Feeling</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Justin Timberlake</t>
+          <t>Black Eyed Peas</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -11513,11 +11513,11 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -11527,12 +11527,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Safe And Sound</t>
+          <t>Young, Wild &amp; Free (feat. Bruno Mars)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Capital Cities</t>
+          <t>Snoop Dogg, Wiz Khalifa, Bruno Mars</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -11541,11 +11541,11 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -11555,12 +11555,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Uptown Funk (feat. Bruno Mars)</t>
+          <t>Evacuate the Dancefloor - Radio Edit</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Mark Ronson, Bruno Mars</t>
+          <t>Cascada</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -11569,11 +11569,11 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -11583,12 +11583,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Thunder</t>
+          <t>Jump - 2015 Remaster</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Imagine Dragons</t>
+          <t>Van Halen</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -11597,11 +11597,11 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -11611,12 +11611,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Girls Like You (feat. Cardi B)</t>
+          <t>I'm an Albatraoz</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Maroon 5, Cardi B</t>
+          <t>AronChupa</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -11625,11 +11625,11 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -11639,12 +11639,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Burn the House Down</t>
+          <t>All Time Low</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>AJR</t>
+          <t>Jon Bellion</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -11653,11 +11653,11 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -11667,12 +11667,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Electricity (with Dua Lipa)</t>
+          <t>CAN'T STOP THE FEELING! (Original Song from DreamWorks Animation's "TROLLS")</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Silk City, Dua Lipa, Diplo, Mark Ronson</t>
+          <t>Justin Timberlake</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -11681,11 +11681,11 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -11695,12 +11695,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Paranoid</t>
+          <t>Safe And Sound</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Post Malone</t>
+          <t>Capital Cities</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -11709,11 +11709,11 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -11723,21 +11723,21 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Cake By The Ocean</t>
+          <t>Uptown Funk (feat. Bruno Mars)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>DNCE</t>
+          <t>Mark Ronson, Bruno Mars</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>9A</t>
+          <t>8B</t>
         </is>
       </c>
       <c r="E404" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
@@ -11751,25 +11751,25 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Going Bad (feat. Drake)</t>
+          <t>Thunder</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Meek Mill, Drake</t>
+          <t>Imagine Dragons</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>9A</t>
+          <t>8B</t>
         </is>
       </c>
       <c r="E405" t="n">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -11779,25 +11779,25 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>In the Name of Love</t>
+          <t>Girls Like You (feat. Cardi B)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Martin Garrix, Bebe Rexha</t>
+          <t>Maroon 5, Cardi B</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>9A</t>
+          <t>8B</t>
         </is>
       </c>
       <c r="E406" t="n">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -11807,25 +11807,25 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>shining on my ex</t>
+          <t>Burn the House Down</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>bbno$, Yung Gravy</t>
+          <t>AJR</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>9A</t>
+          <t>8B</t>
         </is>
       </c>
       <c r="E407" t="n">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -11835,25 +11835,25 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>lovely (with Khalid)</t>
+          <t>Electricity (with Dua Lipa)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Billie Eilish, Khalid</t>
+          <t>Silk City, Dua Lipa, Diplo, Mark Ronson</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>9A</t>
+          <t>8B</t>
         </is>
       </c>
       <c r="E408" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -11863,25 +11863,25 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Summer</t>
+          <t>Paranoid</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Calvin Harris</t>
+          <t>Post Malone</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>9A</t>
+          <t>8B</t>
         </is>
       </c>
       <c r="E409" t="n">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -11891,25 +11891,25 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Animals</t>
+          <t>My First Kiss (feat. Ke$ha)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Maroon 5</t>
+          <t>3OH!3, Kesha</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>9A</t>
+          <t>8B</t>
         </is>
       </c>
       <c r="E410" t="n">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -11919,25 +11919,25 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Stressed Out</t>
+          <t>Intoxicated</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Twenty One Pilots</t>
+          <t>Martin Solveig, Good Times Ahead</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>9A</t>
+          <t>8B</t>
         </is>
       </c>
       <c r="E411" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -11947,12 +11947,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Heathens</t>
+          <t>Cake By The Ocean</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Twenty One Pilots</t>
+          <t>DNCE</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -11961,11 +11961,11 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -11975,12 +11975,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Call You Mine</t>
+          <t>Going Bad (feat. Drake)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>The Chainsmokers, Bebe Rexha</t>
+          <t>Meek Mill, Drake</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -11989,11 +11989,11 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -12003,12 +12003,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Tsunami - Original Mix</t>
+          <t>In the Name of Love</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>DVBBS, Borgeous</t>
+          <t>Martin Garrix, Bebe Rexha</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -12017,7 +12017,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F414" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Yung Gravy, bbno$</t>
+          <t>bbno$, Yung Gravy</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -12059,25 +12059,25 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Outside (feat. Ellie Goulding)</t>
+          <t>lovely (with Khalid)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Calvin Harris, Ellie Goulding</t>
+          <t>Billie Eilish, Khalid</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>9B</t>
+          <t>9A</t>
         </is>
       </c>
       <c r="E416" t="n">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -12087,21 +12087,21 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Post Malone (feat. RANI)</t>
+          <t>Summer</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Sam Feldt, RANI</t>
+          <t>Calvin Harris</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>9B</t>
+          <t>9A</t>
         </is>
       </c>
       <c r="E417" t="n">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="F417" t="inlineStr">
         <is>
@@ -12115,25 +12115,25 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Ballin' (with Roddy Ricch)</t>
+          <t>Animals</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Mustard, Roddy Ricch</t>
+          <t>Maroon 5</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>9B</t>
+          <t>9A</t>
         </is>
       </c>
       <c r="E418" t="n">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -12143,25 +12143,25 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>goosebumps</t>
+          <t>Stressed Out</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Travis Scott</t>
+          <t>Twenty One Pilots</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>9B</t>
+          <t>9A</t>
         </is>
       </c>
       <c r="E419" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -12171,25 +12171,25 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>The Middle</t>
+          <t>Heathens</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Zedd, Maren Morris, Grey</t>
+          <t>Twenty One Pilots</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>9B</t>
+          <t>9A</t>
         </is>
       </c>
       <c r="E420" t="n">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Misc.</t>
         </is>
       </c>
     </row>
@@ -12199,25 +12199,25 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>679 (feat. Remy Boyz)</t>
+          <t>Call You Mine</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Fetty Wap, Remy Boyz</t>
+          <t>The Chainsmokers, Bebe Rexha</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>9B</t>
+          <t>9A</t>
         </is>
       </c>
       <c r="E421" t="n">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -12227,25 +12227,25 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>iSpy (feat. Lil Yachty)</t>
+          <t>Tsunami - Original Mix</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>KYLE, Lil Yachty</t>
+          <t>DVBBS, Borgeous</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>9B</t>
+          <t>9A</t>
         </is>
       </c>
       <c r="E422" t="n">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -12255,21 +12255,21 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Trap Queen</t>
+          <t>shining on my ex</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Fetty Wap</t>
+          <t>Yung Gravy, bbno$</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>9B</t>
+          <t>9A</t>
         </is>
       </c>
       <c r="E423" t="n">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
@@ -12283,12 +12283,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Father Stretch My Hands Pt. 1</t>
+          <t>Outside (feat. Ellie Goulding)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Kanye West</t>
+          <t>Calvin Harris, Ellie Goulding</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -12297,11 +12297,11 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -12311,12 +12311,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Untouchable</t>
+          <t>Post Malone (feat. RANI)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Tritonal, Cash Cash</t>
+          <t>Sam Feldt, RANI</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -12325,7 +12325,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
@@ -12339,12 +12339,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Roots</t>
+          <t>Ballin' (with Roddy Ricch)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Valerie Broussard, Galantis</t>
+          <t>Mustard, Roddy Ricch</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -12353,11 +12353,11 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -12367,12 +12367,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Run Free</t>
+          <t>goosebumps</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Deep Chills, IVIE</t>
+          <t>Travis Scott</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -12381,11 +12381,11 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -12395,12 +12395,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Blame (feat. John Newman)</t>
+          <t>The Middle</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Calvin Harris, John Newman</t>
+          <t>Zedd, Maren Morris, Grey</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -12409,7 +12409,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F428" t="inlineStr">
         <is>
@@ -12423,12 +12423,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Post Malone (feat. RANI) - Joe Stone Remix</t>
+          <t>679 (feat. Remy Boyz)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Sam Feldt, RANI, Joe Stone</t>
+          <t>Fetty Wap, Remy Boyz</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -12437,11 +12437,11 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -12451,12 +12451,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Kill The Lights (with Nile Rodgers) - Audien Remix</t>
+          <t>iSpy (feat. Lil Yachty)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Alex Newell, Jess Glynne, DJ Cassidy, Nile Rodgers, Audien</t>
+          <t>KYLE, Lil Yachty</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -12465,11 +12465,11 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -12479,12 +12479,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Feel This Moment (feat. Christina Aguilera)</t>
+          <t>Trap Queen</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Pitbull, Christina Aguilera</t>
+          <t>Fetty Wap</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -12493,7 +12493,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F431" t="inlineStr">
         <is>
@@ -12507,12 +12507,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Feel So Close - Radio Edit</t>
+          <t>Father Stretch My Hands Pt. 1</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Calvin Harris</t>
+          <t>Kanye West</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -12521,11 +12521,11 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -12535,12 +12535,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Don't Wanna Know</t>
+          <t>Untouchable</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Maroon 5, Kendrick Lamar</t>
+          <t>Tritonal, Cash Cash</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -12563,12 +12563,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Blurred Lines</t>
+          <t>Roots</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Robin Thicke, T.I., Pharrell Williams</t>
+          <t>Valerie Broussard, Galantis</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -12577,11 +12577,11 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -12591,12 +12591,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Promises (with Sam Smith)</t>
+          <t>Run Free</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Calvin Harris, Sam Smith, Jessie Reyez</t>
+          <t>Deep Chills, IVIE</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -12605,11 +12605,11 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -12619,12 +12619,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>bad guy</t>
+          <t>Blame (feat. John Newman)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Billie Eilish</t>
+          <t>Calvin Harris, John Newman</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -12633,11 +12633,11 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -12647,12 +12647,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Under Control (feat. Hurts)</t>
+          <t>Post Malone (feat. RANI) - Joe Stone Remix</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Calvin Harris, Alesso, Hurts</t>
+          <t>Sam Feldt, RANI, Joe Stone</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -12675,25 +12675,25 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>My First Kiss (feat. Ke$ha)</t>
+          <t>Kill The Lights (with Nile Rodgers) - Audien Remix</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>3OH!3, Kesha</t>
+          <t>Alex Newell, Jess Glynne, DJ Cassidy, Nile Rodgers, Audien</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9B</t>
         </is>
       </c>
       <c r="E438" t="n">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -12703,25 +12703,25 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Beautiful Soul</t>
+          <t>Feel This Moment (feat. Christina Aguilera)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Jesse McCartney</t>
+          <t>Pitbull, Christina Aguilera</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9B</t>
         </is>
       </c>
       <c r="E439" t="n">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -12731,25 +12731,25 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Body Like A Back Road</t>
+          <t>Feel So Close - Radio Edit</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Sam Hunt</t>
+          <t>Calvin Harris</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9B</t>
         </is>
       </c>
       <c r="E440" t="n">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -12759,21 +12759,21 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Intoxicated</t>
+          <t>Don't Wanna Know</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Martin Solveig, Good Times Ahead</t>
+          <t>Maroon 5, Kendrick Lamar</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9B</t>
         </is>
       </c>
       <c r="E441" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F441" t="inlineStr">
         <is>
@@ -12787,25 +12787,25 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Raise Your Glass</t>
+          <t>Blurred Lines</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>P!nk</t>
+          <t>Robin Thicke, T.I., Pharrell Williams</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9B</t>
         </is>
       </c>
       <c r="E442" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Rap</t>
         </is>
       </c>
     </row>
@@ -12815,25 +12815,25 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Ride</t>
+          <t>Promises (with Sam Smith)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Twenty One Pilots</t>
+          <t>Calvin Harris, Sam Smith, Jessie Reyez</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9B</t>
         </is>
       </c>
       <c r="E443" t="n">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>Misc.</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -12843,25 +12843,25 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Resolve</t>
+          <t>bad guy</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Audien</t>
+          <t>Billie Eilish</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9B</t>
         </is>
       </c>
       <c r="E444" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>EDM</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>
@@ -12871,25 +12871,25 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>No Sleep</t>
+          <t>Under Control (feat. Hurts)</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Wiz Khalifa</t>
+          <t>Calvin Harris, Alesso, Hurts</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9B</t>
         </is>
       </c>
       <c r="E445" t="n">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>EDM</t>
         </is>
       </c>
     </row>
@@ -12899,25 +12899,25 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>What Lovers Do (feat. SZA)</t>
+          <t>Raise Your Glass</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Maroon 5, SZA</t>
+          <t>P!nk</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9B</t>
         </is>
       </c>
       <c r="E446" t="n">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>Rap</t>
+          <t>Pop</t>
         </is>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -442,17 +442,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Track Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Genre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Key</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Track Name</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
